--- a/events/anw/2023/ANW2023.xlsx
+++ b/events/anw/2023/ANW2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PowerCables" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t xml:space="preserve">Power</t>
   </si>
@@ -164,12 +164,6 @@
     <t xml:space="preserve">Martin MAC Quantum Profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Robe Spikie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADJ Mega Tripar Profile+</t>
-  </si>
-  <si>
     <t xml:space="preserve">Speaker (JBL Vertec 4886) (6 hang)</t>
   </si>
   <si>
@@ -179,9 +173,6 @@
     <t xml:space="preserve">Dimmer Pack</t>
   </si>
   <si>
-    <t xml:space="preserve">Awoo Sign</t>
-  </si>
-  <si>
     <t xml:space="preserve">Truss SQ-4112 (Square 2m)</t>
   </si>
   <si>
@@ -194,13 +185,16 @@
     <t xml:space="preserve">O-Clamp</t>
   </si>
   <si>
-    <t xml:space="preserve">4' DMX</t>
+    <t xml:space="preserve">8’ DMX</t>
   </si>
   <si>
     <t xml:space="preserve">16' DMX</t>
   </si>
   <si>
-    <t xml:space="preserve">Powercon -&gt; Edison</t>
+    <t xml:space="preserve">Edison stringer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True1 -&gt; Edison</t>
   </si>
   <si>
     <t xml:space="preserve">Camera Equipment</t>
@@ -543,8 +537,8 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2135,10 +2129,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2181,14 +2175,14 @@
         <v>47</v>
       </c>
       <c r="B3" s="23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="23" t="n">
-        <v>16.1</v>
+        <v>238</v>
       </c>
       <c r="D3" s="23" t="n">
         <f aca="false">B3*C3</f>
-        <v>0</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,44 +2190,44 @@
         <v>48</v>
       </c>
       <c r="B4" s="23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="23" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="23" t="n">
         <f aca="false">B4*C4</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B5" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23" t="n">
         <v>6</v>
-      </c>
-      <c r="C5" s="23" t="n">
-        <v>4.8</v>
       </c>
       <c r="D5" s="23" t="n">
         <f aca="false">B5*C5</f>
-        <v>28.8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B6" s="23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" s="23" t="n">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="D6" s="23" t="n">
         <f aca="false">B6*C6</f>
-        <v>476</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2241,14 +2235,14 @@
         <v>50</v>
       </c>
       <c r="B7" s="23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="23" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7" s="23" t="n">
         <f aca="false">B7*C7</f>
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2256,14 +2250,14 @@
         <v>51</v>
       </c>
       <c r="B8" s="23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="23" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D8" s="23" t="n">
         <f aca="false">B8*C8</f>
-        <v>12</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2271,251 +2265,209 @@
         <v>52</v>
       </c>
       <c r="B9" s="23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D9" s="23" t="n">
         <f aca="false">B9*C9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B10" s="23" t="n">
         <v>6</v>
       </c>
       <c r="C10" s="23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" s="23" t="n">
         <f aca="false">B10*C10</f>
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="23" t="n">
-        <v>29</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="23" t="n">
         <f aca="false">B11*C11</f>
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" s="23" t="n">
-        <v>40</v>
+        <v>0.7</v>
       </c>
       <c r="D12" s="23" t="n">
         <f aca="false">B12*C12</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" s="23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D13" s="23" t="n">
         <f aca="false">B13*C13</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="23" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C14" s="23" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="D14" s="23" t="n">
         <f aca="false">B14*C14</f>
-        <v>18</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" s="23" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C15" s="23" t="n">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="D15" s="23" t="n">
         <f aca="false">B15*C15</f>
-        <v>4.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="23" t="n">
-        <v>0.7</v>
+        <v>20</v>
       </c>
       <c r="D16" s="23" t="n">
         <f aca="false">B16*C16</f>
-        <v>0.7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="23" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" s="23" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D17" s="23" t="n">
-        <f aca="false">B17*C17</f>
-        <v>5.6</v>
-      </c>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="23" t="n">
-        <v>10</v>
-      </c>
-      <c r="D18" s="23" t="n">
-        <f aca="false">B18*C18</f>
-        <v>10</v>
-      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="23" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="23" t="n">
-        <v>20</v>
-      </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">B19*C19</f>
-        <v>40</v>
+        <f aca="false">SUM(D2:D18)</f>
+        <v>896.1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>905</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="23" t="n">
-        <f aca="false">SUM(D2:D21)</f>
-        <v>916.3</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22" t="s">
+      <c r="D21" s="23" t="n">
+        <f aca="false">D20-D19</f>
+        <v>8.89999999999998</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="23" t="n">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="23" t="n">
-        <f aca="false">D23-D22</f>
-        <v>-11.3</v>
+      <c r="B25" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>66</v>
+      <c r="A27" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" display="https://d295jznhem2tn9.cloudfront.net/ItemRelatedFiles/11145/F34%20Truss%20Load%20Span%20Tables%20Global%20Truss%20California%20Stamp.pdf"/>
+    <hyperlink ref="A24" r:id="rId1" display="https://d295jznhem2tn9.cloudfront.net/ItemRelatedFiles/11145/F34%20Truss%20Load%20Span%20Tables%20Global%20Truss%20California%20Stamp.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/events/anw/2023/ANW2023.xlsx
+++ b/events/anw/2023/ANW2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PowerCables" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t xml:space="preserve">Power</t>
   </si>
@@ -537,8 +537,8 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N17" activeCellId="0" sqref="N17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,11 +781,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>0.13</v>
+        <v>0.68</v>
       </c>
       <c r="D7" s="10" t="n">
         <f aca="false">C7*B7</f>
-        <v>0.26</v>
+        <v>1.36</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -856,14 +856,14 @@
       <c r="C9" s="15"/>
       <c r="D9" s="15" t="n">
         <f aca="false">SUM(D5:D8)</f>
-        <v>4.05</v>
+        <v>5.15</v>
       </c>
       <c r="E9" s="15" t="n">
         <f aca="false">D9*8</f>
-        <v>32.4</v>
+        <v>41.2</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -967,11 +967,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>0.13</v>
+        <v>0.68</v>
       </c>
       <c r="D12" s="10" t="n">
         <f aca="false">C12*B12</f>
-        <v>0.26</v>
+        <v>1.36</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1012,8 +1012,8 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="11" t="s">
-        <v>8</v>
+      <c r="G13" s="11" t="n">
+        <v>4</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -1039,11 +1039,11 @@
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="n">
         <f aca="false">SUM(D11:D13)</f>
-        <v>1.75</v>
+        <v>2.85</v>
       </c>
       <c r="E14" s="15" t="n">
         <f aca="false">D14*4</f>
-        <v>7</v>
+        <v>11.4</v>
       </c>
       <c r="F14" s="15" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="10" t="n">
         <f aca="false">SUM(E4:E38)</f>
-        <v>94.388</v>
+        <v>107.588</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="11"/>
@@ -1863,11 +1863,11 @@
       </c>
       <c r="F40" s="10" t="n">
         <f aca="false">SUM(F3:F39)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" s="11" t="n">
         <f aca="false">SUM(G3:G38)</f>
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H40" s="11" t="n">
         <f aca="false">SUM(H3:H38)</f>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G44" s="9" t="n">
         <f aca="false">ROUND(G40*1.05,0)</f>
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H44" s="9" t="n">
         <f aca="false">ROUND(H40*1.05,0)</f>
@@ -2131,8 +2131,8 @@
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F35" activeCellId="0" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
